--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B2011-AA66-41F0-89E9-215D181C6EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3680" yWindow="3910" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>怪物编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动拍间隔（几拍动一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +368,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="32.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B2011-AA66-41F0-89E9-215D181C6EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D803A-D156-4B38-83AD-794326E68BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="3910" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3230" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>怪物编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,114 @@
   </si>
   <si>
     <t>行动拍间隔（几拍动一次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动循环（若为循环行动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制方法，上0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_U1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_U0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_L0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_R0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushi_R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,19 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="32.9140625" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,6 +506,101 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D803A-D156-4B38-83AD-794326E68BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824894E-9693-4C86-814F-A4B0433A54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3230" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="5360" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824894E-9693-4C86-814F-A4B0433A54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A12CA-9282-4DEB-A96F-7A9CF480926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="5360" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="2790" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>怪物编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>Mushi_R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -491,7 +495,7 @@
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +550,11 @@
       <c r="R1" t="s">
         <v>19</v>
       </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -601,6 +608,9 @@
       </c>
       <c r="R2" t="s">
         <v>31</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A12CA-9282-4DEB-A96F-7A9CF480926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC856C-30F5-4DC7-8BBC-EC6D7A88A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="2790" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4110" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/data/Monster_rule.xlsx
+++ b/data/Monster_rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC856C-30F5-4DC7-8BBC-EC6D7A88A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EBBB28-879B-4C44-8547-FA4517E0CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4110" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
